--- a/EKrut/BUGS.xlsx
+++ b/EKrut/BUGS.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ebraude-my.sharepoint.com/personal/neta_amzalag_e_braude_ac_il/Documents/Documents/GitHub/EKrut/EKrut/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davids\Desktop\EKrut\EKrut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{ADD2DE5D-BCB2-41B2-92D6-8F84D0DAA729}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CB8EDA-3686-4506-9284-A675EC907ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BUGS" sheetId="1" r:id="rId1"/>
+    <sheet name="Bugs" sheetId="1" r:id="rId1"/>
+    <sheet name="Problems" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Action</t>
   </si>
@@ -74,6 +75,12 @@
   </si>
   <si>
     <t>The value of the previuos order stays with the error message displayed</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Encountered dependancies on Server/FXML, had to refactor for testability</t>
   </si>
 </sst>
 </file>
@@ -84,7 +91,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -497,25 +504,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.875" customWidth="1"/>
+    <col min="6" max="6" width="29.25" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="19.875" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="15">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>12</v>
@@ -609,7 +616,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="38.25">
+    <row r="4" spans="1:20" ht="25.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -666,7 +673,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" ht="15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -679,64 +686,64 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" ht="15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" ht="15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" ht="15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" ht="15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" ht="15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" ht="15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" ht="15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" ht="15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" ht="15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" ht="15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" ht="15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" ht="15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -758,7 +765,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" ht="15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -780,7 +787,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" ht="15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -802,7 +809,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" ht="15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -824,7 +831,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" ht="15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="F22" s="2"/>
@@ -848,7 +855,79 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94386CC2-4038-40DB-AD92-788A320EF175}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.75" customWidth="1"/>
+    <col min="4" max="4" width="35.75" customWidth="1"/>
+    <col min="5" max="5" width="45.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="25.5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C13B8670CDADCF4EB66738A43EE21A88" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="966a1049ec30ed7d2a840b05c3e70e24">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d5cade48-81c3-4759-8045-c44d9b30b4e7" xmlns:ns4="e258a533-246e-4ad7-bde9-babd2ee697a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c386dd5ac5ef53e9f096b401e8744af" ns3:_="" ns4:_="">
     <xsd:import namespace="d5cade48-81c3-4759-8045-c44d9b30b4e7"/>
@@ -1083,15 +1162,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1101,6 +1171,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C01B1534-DA32-4005-8B13-78A7D8213113}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2A0E09C-5BA1-4827-A8E0-9DEDFD7DF642}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1115,14 +1193,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C01B1534-DA32-4005-8B13-78A7D8213113}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/EKrut/BUGS.xlsx
+++ b/EKrut/BUGS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davids\Desktop\EKrut\EKrut\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - ort braude college of engineering\Documents\GitHub\EKrut\EKrut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CB8EDA-3686-4506-9284-A675EC907ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="102_{03FA5D31-D0FD-4EB0-9E9A-E211B415A6AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{0785ECE9-46F3-4ECF-8212-6FBD995544B7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Action</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>Encountered dependancies on Server/FXML, had to refactor for testability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add to cart button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add to cart button hides the button bar in view catalog and the button bar under could not be mapped in jubula, so we needed to hide it in order to check functionallity </t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -91,7 +100,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -505,24 +514,24 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="31.875" customWidth="1"/>
-    <col min="6" max="6" width="29.25" customWidth="1"/>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15">
+    <row r="1" spans="1:20">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>12</v>
@@ -552,7 +561,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" ht="25.5">
+    <row r="2" spans="1:20" ht="26.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -584,7 +593,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="25.5">
+    <row r="3" spans="1:20" ht="26.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -616,7 +625,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="25.5">
+    <row r="4" spans="1:20" ht="26.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -673,7 +682,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:20" ht="15">
+    <row r="6" spans="1:20">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -686,64 +695,64 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:20" ht="15">
+    <row r="7" spans="1:20">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:20" ht="15">
+    <row r="8" spans="1:20">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="15">
+    <row r="9" spans="1:20">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:20" ht="15">
+    <row r="10" spans="1:20">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:20" ht="15">
+    <row r="11" spans="1:20">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:20" ht="15">
+    <row r="12" spans="1:20">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:20" ht="15">
+    <row r="13" spans="1:20">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:20" ht="15">
+    <row r="14" spans="1:20">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:20" ht="15">
+    <row r="15" spans="1:20">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:20" ht="15">
+    <row r="16" spans="1:20">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:20" ht="15">
+    <row r="17" spans="1:20">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:20" ht="15">
+    <row r="18" spans="1:20">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -765,7 +774,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20" ht="15">
+    <row r="19" spans="1:20">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -787,7 +796,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" ht="15">
+    <row r="20" spans="1:20">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -809,7 +818,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" ht="15">
+    <row r="21" spans="1:20">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -831,7 +840,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" ht="15">
+    <row r="22" spans="1:20">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="F22" s="2"/>
@@ -857,19 +866,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94386CC2-4038-40DB-AD92-788A320EF175}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.75" customWidth="1"/>
-    <col min="4" max="4" width="35.75" customWidth="1"/>
-    <col min="5" max="5" width="45.875" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.77734375" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" customWidth="1"/>
+    <col min="5" max="5" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1">
@@ -881,7 +890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25.5">
+    <row r="2" spans="1:3" ht="26.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -892,26 +901,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="66">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="12"/>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -919,12 +923,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d5cade48-81c3-4759-8045-c44d9b30b4e7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1163,17 +1166,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d5cade48-81c3-4759-8045-c44d9b30b4e7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C01B1534-DA32-4005-8B13-78A7D8213113}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACBD6254-EB8E-4FF7-A911-305DB9D08E56}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d5cade48-81c3-4759-8045-c44d9b30b4e7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e258a533-246e-4ad7-bde9-babd2ee697a7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1198,18 +1211,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACBD6254-EB8E-4FF7-A911-305DB9D08E56}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C01B1534-DA32-4005-8B13-78A7D8213113}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e258a533-246e-4ad7-bde9-babd2ee697a7"/>
-    <ds:schemaRef ds:uri="d5cade48-81c3-4759-8045-c44d9b30b4e7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>